--- a/results/mp/logistic/corona/confidence/210/stop-words-topk-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/stop-words-topk-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,7 +49,7 @@
     <t>crude</t>
   </si>
   <si>
-    <t>war</t>
+    <t>die</t>
   </si>
   <si>
     <t>sc</t>
@@ -58,9 +58,6 @@
     <t>panic</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
@@ -70,42 +67,42 @@
     <t>love</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>best</t>
+    <t>happy</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
@@ -118,37 +115,55 @@
     <t>heroes</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>save</t>
+    <t>join</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
+    <t>gt</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
     <t>share</t>
   </si>
   <si>
-    <t>care</t>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>increase</t>
   </si>
 </sst>
 </file>
@@ -506,7 +521,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -514,10 +529,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -596,7 +611,7 @@
         <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K3">
         <v>0.9565217391304348</v>
@@ -625,13 +640,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7397260273972602</v>
+        <v>0.7294520547945206</v>
       </c>
       <c r="C4">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D4">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -643,19 +658,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K4">
-        <v>0.9</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -667,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -696,16 +711,16 @@
         <v>15</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K5">
-        <v>0.8983050847457628</v>
+        <v>0.9</v>
       </c>
       <c r="L5">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="M5">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -717,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -725,7 +740,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.5263157894736842</v>
+        <v>0.5405405405405406</v>
       </c>
       <c r="C6">
         <v>20</v>
@@ -743,19 +758,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L6">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="M6">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -767,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -775,13 +790,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.4232804232804233</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="C7">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D7">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -793,19 +808,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K7">
-        <v>0.8484848484848485</v>
+        <v>0.875</v>
       </c>
       <c r="L7">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="M7">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -817,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -825,13 +840,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3449612403100775</v>
+        <v>0.3372093023255814</v>
       </c>
       <c r="C8">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D8">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -843,19 +858,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K8">
-        <v>0.8333333333333334</v>
+        <v>0.8328981723237598</v>
       </c>
       <c r="L8">
-        <v>30</v>
+        <v>319</v>
       </c>
       <c r="M8">
-        <v>30</v>
+        <v>319</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -867,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -875,13 +890,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.28</v>
+        <v>0.1812080536912752</v>
       </c>
       <c r="C9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -893,69 +908,45 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>54</v>
+        <v>122</v>
       </c>
       <c r="J9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9">
+        <v>0.8207547169811321</v>
+      </c>
+      <c r="L9">
+        <v>87</v>
+      </c>
+      <c r="M9">
+        <v>87</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="J10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K9">
-        <v>0.825065274151436</v>
-      </c>
-      <c r="L9">
-        <v>316</v>
-      </c>
-      <c r="M9">
-        <v>316</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>0.2080536912751678</v>
-      </c>
-      <c r="C10">
-        <v>31</v>
-      </c>
-      <c r="D10">
-        <v>31</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>118</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="K10">
-        <v>0.8113207547169812</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L10">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="M10">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -967,21 +958,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K11">
-        <v>0.8076923076923077</v>
+        <v>0.7890625</v>
       </c>
       <c r="L11">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="M11">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -993,21 +984,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12">
+        <v>0.7878787878787878</v>
+      </c>
+      <c r="L12">
         <v>26</v>
       </c>
-      <c r="K12">
-        <v>0.8055555555555556</v>
-      </c>
-      <c r="L12">
-        <v>29</v>
-      </c>
       <c r="M12">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1024,16 +1015,16 @@
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K13">
-        <v>0.7931034482758621</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L13">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="M13">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1045,21 +1036,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="L14">
         <v>28</v>
       </c>
-      <c r="K14">
-        <v>0.7926829268292683</v>
-      </c>
-      <c r="L14">
-        <v>65</v>
-      </c>
       <c r="M14">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1071,21 +1062,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K15">
-        <v>0.7734375</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L15">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="M15">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1097,12 +1088,12 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K16">
         <v>0.7625</v>
@@ -1128,16 +1119,16 @@
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K17">
-        <v>0.7605633802816901</v>
+        <v>0.7535211267605634</v>
       </c>
       <c r="L17">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M17">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1149,21 +1140,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K18">
-        <v>0.7291666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="L18">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M18">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1175,21 +1166,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K19">
-        <v>0.723404255319149</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L19">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M19">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1201,21 +1192,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K20">
-        <v>0.6984126984126984</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L20">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="M20">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1227,21 +1218,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K21">
-        <v>0.64</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="L21">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M21">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1253,21 +1244,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K22">
-        <v>0.6088235294117647</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="L22">
-        <v>207</v>
+        <v>40</v>
       </c>
       <c r="M22">
-        <v>207</v>
+        <v>40</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1279,21 +1270,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>133</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K23">
-        <v>0.6</v>
+        <v>0.6205882352941177</v>
       </c>
       <c r="L23">
-        <v>21</v>
+        <v>211</v>
       </c>
       <c r="M23">
-        <v>21</v>
+        <v>211</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1305,21 +1296,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>14</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K24">
-        <v>0.5638297872340425</v>
+        <v>0.62</v>
       </c>
       <c r="L24">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="M24">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1331,21 +1322,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K25">
-        <v>0.5606694560669456</v>
+        <v>0.6046511627906976</v>
       </c>
       <c r="L25">
-        <v>134</v>
+        <v>26</v>
       </c>
       <c r="M25">
-        <v>134</v>
+        <v>26</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1357,21 +1348,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>105</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K26">
-        <v>0.5581395348837209</v>
+        <v>0.5851063829787234</v>
       </c>
       <c r="L26">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="M26">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1383,21 +1374,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>19</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K27">
-        <v>0.5538461538461539</v>
+        <v>0.575</v>
       </c>
       <c r="L27">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="M27">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1409,21 +1400,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K28">
-        <v>0.5423728813559322</v>
+        <v>0.5648535564853556</v>
       </c>
       <c r="L28">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="M28">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1435,21 +1426,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>135</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K29">
-        <v>0.5</v>
+        <v>0.5538461538461539</v>
       </c>
       <c r="L29">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M29">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1461,33 +1452,189 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K30">
+        <v>0.5525423728813559</v>
+      </c>
+      <c r="L30">
+        <v>163</v>
+      </c>
+      <c r="M30">
+        <v>163</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="10:17">
+      <c r="J31" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K30">
-        <v>0.449438202247191</v>
-      </c>
-      <c r="L30">
-        <v>40</v>
-      </c>
-      <c r="M30">
-        <v>40</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
+      <c r="K31">
+        <v>0.4943820224719101</v>
+      </c>
+      <c r="L31">
+        <v>44</v>
+      </c>
+      <c r="M31">
+        <v>44</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K32">
+        <v>0.4761904761904762</v>
+      </c>
+      <c r="L32">
+        <v>20</v>
+      </c>
+      <c r="M32">
+        <v>20</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K33">
+        <v>0.4714285714285714</v>
+      </c>
+      <c r="L33">
+        <v>33</v>
+      </c>
+      <c r="M33">
+        <v>33</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K34">
+        <v>0.3725490196078431</v>
+      </c>
+      <c r="L34">
+        <v>19</v>
+      </c>
+      <c r="M34">
+        <v>19</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K35">
+        <v>0.273972602739726</v>
+      </c>
+      <c r="L35">
+        <v>20</v>
+      </c>
+      <c r="M35">
+        <v>20</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
         <v>49</v>
+      </c>
+      <c r="K36">
+        <v>0.2564102564102564</v>
+      </c>
+      <c r="L36">
+        <v>20</v>
+      </c>
+      <c r="M36">
+        <v>20</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
